--- a/src/test/resources/product_catalog_50.xlsx
+++ b/src/test/resources/product_catalog_50.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapileson/Desktop/jmh-test-playground/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapileson/Desktop/jmh-test-playground/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F8A035-0929-B441-9216-A2DA25BE9C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54A926F-6B3E-2946-97B5-3A5F0F26CEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{8743DBB3-9E11-0445-A543-E7BF86D17E3C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{8743DBB3-9E11-0445-A543-E7BF86D17E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -87,6 +87,105 @@
   </si>
   <si>
     <t>Products</t>
+  </si>
+  <si>
+    <t>Grapes_Fruit</t>
+  </si>
+  <si>
+    <t>Cabbage_Vegetable</t>
+  </si>
+  <si>
+    <t>Raddish_Vegetable</t>
+  </si>
+  <si>
+    <t>Guava_Fruit</t>
+  </si>
+  <si>
+    <t>Strawberry_Fruit</t>
+  </si>
+  <si>
+    <t>200&amp;</t>
+  </si>
+  <si>
+    <t>202^</t>
+  </si>
+  <si>
+    <t>203&amp;</t>
+  </si>
+  <si>
+    <t>204$</t>
+  </si>
+  <si>
+    <t>(205</t>
+  </si>
+  <si>
+    <t>206)</t>
+  </si>
+  <si>
+    <t>207!</t>
+  </si>
+  <si>
+    <t>209_</t>
+  </si>
+  <si>
+    <t>2+11</t>
+  </si>
+  <si>
+    <t>21=2</t>
+  </si>
+  <si>
+    <t>300&amp;</t>
+  </si>
+  <si>
+    <t>302^</t>
+  </si>
+  <si>
+    <t>303&amp;</t>
+  </si>
+  <si>
+    <t>304$</t>
+  </si>
+  <si>
+    <t>(305</t>
+  </si>
+  <si>
+    <t>306)</t>
+  </si>
+  <si>
+    <t>307!</t>
+  </si>
+  <si>
+    <t>309_</t>
+  </si>
+  <si>
+    <t>3+11</t>
+  </si>
+  <si>
+    <t>31=2</t>
+  </si>
+  <si>
+    <t>400&amp;</t>
+  </si>
+  <si>
+    <t>402^</t>
+  </si>
+  <si>
+    <t>403&amp;</t>
+  </si>
+  <si>
+    <t>404$</t>
+  </si>
+  <si>
+    <t>(405</t>
+  </si>
+  <si>
+    <t>406)</t>
+  </si>
+  <si>
+    <t>407!</t>
+  </si>
+  <si>
+    <t>409_</t>
   </si>
 </sst>
 </file>
@@ -447,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2803A628-2C49-5745-8120-854287B0EC7F}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="176" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -512,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -520,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -528,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -536,7 +635,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -544,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -552,15 +651,15 @@
         <v>-110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -568,8 +667,310 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>208</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>-210</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>308</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>-310</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>4.01</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>408</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>-410</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
